--- a/JXler/Excel/Sample.xlsx
+++ b/JXler/Excel/Sample.xlsx
@@ -15,10 +15,82 @@
 </x:workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:authors>
+    <x:author>石川学</x:author>
+  </x:authors>
+  <x:commentList>
+    <x:comment ref="A1" authorId="0">
+      <x:text>
+        <x:r>
+          <x:rPr>
+            <x:vertAlign val="baseline"/>
+            <x:sz val="9"/>
+            <x:color rgb="FF000000"/>
+            <x:rFont val="Tahoma"/>
+            <x:family val="2"/>
+          </x:rPr>
+          <x:t>Array</x:t>
+        </x:r>
+      </x:text>
+    </x:comment>
+  </x:commentList>
+</x:comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:authors>
+    <x:author>石川学</x:author>
+  </x:authors>
+  <x:commentList>
+    <x:comment ref="A1" authorId="0">
+      <x:text>
+        <x:r>
+          <x:rPr>
+            <x:vertAlign val="baseline"/>
+            <x:sz val="9"/>
+            <x:color rgb="FF000000"/>
+            <x:rFont val="Tahoma"/>
+            <x:family val="2"/>
+          </x:rPr>
+          <x:t>Array</x:t>
+        </x:r>
+      </x:text>
+    </x:comment>
+  </x:commentList>
+</x:comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:authors>
+    <x:author>石川学</x:author>
+  </x:authors>
+  <x:commentList>
+    <x:comment ref="A1" authorId="0">
+      <x:text>
+        <x:r>
+          <x:rPr>
+            <x:vertAlign val="baseline"/>
+            <x:sz val="9"/>
+            <x:color rgb="FF000000"/>
+            <x:rFont val="Tahoma"/>
+            <x:family val="2"/>
+          </x:rPr>
+          <x:t>Array</x:t>
+        </x:r>
+      </x:text>
+    </x:comment>
+  </x:commentList>
+</x:comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
-  <x:si>
-    <x:t>No_a</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+  <x:si>
+    <x:t>No</x:t>
   </x:si>
   <x:si>
     <x:t>_id</x:t>
@@ -117,6 +189,9 @@
     <x:t>636 Amersfort Place, Ellerslie, Michigan, 3574</x:t>
   </x:si>
   <x:si>
+    <x:t>2021-11-30T07:39:45 -09:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>{tags_No.1}</x:t>
   </x:si>
   <x:si>
@@ -156,6 +231,9 @@
     <x:t>995 Bayview Place, Kent, Oklahoma, 8466</x:t>
   </x:si>
   <x:si>
+    <x:t>2018-07-19T01:19:44 -09:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>{tags_No.2}</x:t>
   </x:si>
   <x:si>
@@ -192,6 +270,9 @@
     <x:t>284 Kingsland Avenue, Layhill, California, 3748</x:t>
   </x:si>
   <x:si>
+    <x:t>2014-12-03T02:48:43 -09:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>{tags_No.3}</x:t>
   </x:si>
   <x:si>
@@ -228,6 +309,9 @@
     <x:t>921 McKibben Street, Delwood, Nevada, 3655</x:t>
   </x:si>
   <x:si>
+    <x:t>2014-08-20T03:25:42 -09:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>{tags_No.4}</x:t>
   </x:si>
   <x:si>
@@ -264,6 +348,9 @@
     <x:t>585 Lafayette Walk, Bodega, Alabama, 5065</x:t>
   </x:si>
   <x:si>
+    <x:t>2014-09-22T03:04:52 -09:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>{tags_No.5}</x:t>
   </x:si>
   <x:si>
@@ -298,6 +385,9 @@
   </x:si>
   <x:si>
     <x:t>128 Louisiana Avenue, Muse, Vermont, 6177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015-11-22T07:11:22 -09:00</x:t>
   </x:si>
   <x:si>
     <x:t>{tags_No.6}</x:t>
@@ -466,8 +556,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="165" formatCode="@"/>
+    <x:numFmt numFmtId="166" formatCode="#.###"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -513,23 +605,30 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -837,6 +936,9 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:22">
       <x:c r="A1" s="0" t="s">
@@ -910,408 +1012,408 @@
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D2" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E2" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="I2" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="J2" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="K2" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="L2" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="M2" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="N2" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="O2" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="P2" s="1">
-        <x:v>44531.0692708333</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="n">
-        <x:v>-25.292236</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="n">
-        <x:v>20.195368</x:v>
-      </x:c>
-      <x:c r="S2" s="2" t="s">
+      <x:c r="P2" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="T2" s="2" t="s">
+      <x:c r="Q2" s="2" t="n">
+        <x:v>-25.29224</x:v>
+      </x:c>
+      <x:c r="R2" s="2" t="n">
+        <x:v>20.19537</x:v>
+      </x:c>
+      <x:c r="S2" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="U2" s="0" t="s">
+      <x:c r="T2" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="V2" s="0" t="s">
+      <x:c r="U2" s="1" t="s">
         <x:v>36</x:v>
+      </x:c>
+      <x:c r="V2" s="1" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:22">
       <x:c r="A3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>37</x:v>
+      <x:c r="B3" s="1" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>38</x:v>
+      <x:c r="D3" s="1" t="s">
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E3" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="F3" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
+      <x:c r="I3" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
+      <x:c r="J3" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="L3" s="0" t="s">
+      <x:c r="K3" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="M3" s="0" t="s">
+      <x:c r="L3" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="N3" s="0" t="s">
+      <x:c r="M3" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="O3" s="0" t="s">
+      <x:c r="N3" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="P3" s="1">
-        <x:v>43300.8053703704</x:v>
-      </x:c>
-      <x:c r="Q3" s="0" t="n">
-        <x:v>50.587139</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="n">
+      <x:c r="O3" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="Q3" s="2" t="n">
+        <x:v>50.58714</x:v>
+      </x:c>
+      <x:c r="R3" s="2" t="n">
         <x:v>-2.480798</x:v>
       </x:c>
-      <x:c r="S3" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="T3" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="U3" s="0" t="s">
+      <x:c r="S3" s="3" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>36</x:v>
+      <x:c r="T3" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="U3" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="V3" s="1" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:22">
       <x:c r="A4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>49</x:v>
+      <x:c r="B4" s="1" t="s">
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>50</x:v>
+      <x:c r="D4" s="1" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="F4" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
+      <x:c r="I4" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="J4" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="s">
+      <x:c r="K4" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="O4" s="0" t="s">
+      <x:c r="M4" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="P4" s="1">
-        <x:v>41976.8671643519</x:v>
-      </x:c>
-      <x:c r="Q4" s="0" t="n">
-        <x:v>81.504462</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="n">
-        <x:v>-164.635927</x:v>
-      </x:c>
-      <x:c r="S4" s="2" t="s">
+      <x:c r="N4" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="T4" s="2" t="s">
+      <x:c r="O4" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="U4" s="0" t="s">
+      <x:c r="P4" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="V4" s="0" t="s">
-        <x:v>36</x:v>
+      <x:c r="Q4" s="2" t="n">
+        <x:v>81.50446</x:v>
+      </x:c>
+      <x:c r="R4" s="2" t="n">
+        <x:v>-164.6359</x:v>
+      </x:c>
+      <x:c r="S4" s="3" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="T4" s="3" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="U4" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="V4" s="1" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:22">
       <x:c r="A5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>61</x:v>
+      <x:c r="B5" s="1" t="s">
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>62</x:v>
+      <x:c r="D5" s="1" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E5" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="F5" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G5" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
+      <x:c r="I5" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J5" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="O5" s="0" t="s">
+      <x:c r="L5" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="P5" s="1">
-        <x:v>41871.8928472222</x:v>
-      </x:c>
-      <x:c r="Q5" s="0" t="n">
-        <x:v>72.351775</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="n">
-        <x:v>-64.826905</x:v>
-      </x:c>
-      <x:c r="S5" s="2" t="s">
+      <x:c r="M5" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="T5" s="2" t="s">
+      <x:c r="N5" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="U5" s="0" t="s">
+      <x:c r="O5" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="V5" s="0" t="s">
+      <x:c r="P5" s="1" t="s">
         <x:v>73</x:v>
+      </x:c>
+      <x:c r="Q5" s="2" t="n">
+        <x:v>72.35178</x:v>
+      </x:c>
+      <x:c r="R5" s="2" t="n">
+        <x:v>-64.8269</x:v>
+      </x:c>
+      <x:c r="S5" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T5" s="3" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="U5" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="V5" s="1" t="s">
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:22">
       <x:c r="A6" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>74</x:v>
+      <x:c r="B6" s="1" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>75</x:v>
+      <x:c r="D6" s="1" t="s">
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E6" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="F6" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G6" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
+      <x:c r="I6" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J6" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="L6" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O6" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P6" s="1">
-        <x:v>41904.8783796296</x:v>
-      </x:c>
-      <x:c r="Q6" s="0" t="n">
-        <x:v>38.874034</x:v>
-      </x:c>
-      <x:c r="R6" s="0" t="n">
-        <x:v>-94.494842</x:v>
-      </x:c>
-      <x:c r="S6" s="2" t="s">
+      <x:c r="L6" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="T6" s="2" t="s">
+      <x:c r="M6" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="U6" s="0" t="s">
+      <x:c r="N6" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="V6" s="0" t="s">
+      <x:c r="O6" s="1" t="s">
         <x:v>85</x:v>
+      </x:c>
+      <x:c r="P6" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="Q6" s="2" t="n">
+        <x:v>38.87403</x:v>
+      </x:c>
+      <x:c r="R6" s="2" t="n">
+        <x:v>-94.49484</x:v>
+      </x:c>
+      <x:c r="S6" s="3" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="T6" s="3" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="U6" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="V6" s="1" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
       <x:c r="A7" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>86</x:v>
+      <x:c r="B7" s="1" t="s">
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>87</x:v>
+      <x:c r="D7" s="1" t="s">
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E7" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="F7" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G7" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="L7" s="0" t="s">
+      <x:c r="I7" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J7" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="L7" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="M7" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="N7" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="O7" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="P7" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="Q7" s="2" t="n">
+        <x:v>30.29531</x:v>
+      </x:c>
+      <x:c r="R7" s="2" t="n">
+        <x:v>-5.771518</x:v>
+      </x:c>
+      <x:c r="S7" s="3" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="T7" s="3" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="U7" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="V7" s="1" t="s">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="M7" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="N7" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="O7" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="P7" s="1">
-        <x:v>42331.0495601852</x:v>
-      </x:c>
-      <x:c r="Q7" s="0" t="n">
-        <x:v>30.295307</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="n">
-        <x:v>-5.771518</x:v>
-      </x:c>
-      <x:c r="S7" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="T7" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="U7" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="V7" s="0" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1333,6 +1435,7 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:legacyDrawing r:id="rId8"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1342,354 +1445,357 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B43"/>
+  <x:dimension ref="A1:D43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+        <x:v>103</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
       <x:c r="A20" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
       <x:c r="A21" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
       <x:c r="A22" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
       <x:c r="A23" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
       <x:c r="A24" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
       <x:c r="A25" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
       <x:c r="A26" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
+        <x:v>125</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
       <x:c r="A27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
       <x:c r="A28" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
+        <x:v>127</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
       <x:c r="A29" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
       <x:c r="A30" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
       <x:c r="A31" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
       <x:c r="A32" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
       <x:c r="A33" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
       <x:c r="A34" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
       <x:c r="A35" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
       <x:c r="A36" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
       <x:c r="A37" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>125</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:2">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
       <x:c r="A38" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
       <x:c r="A39" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>127</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
       <x:c r="A40" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
       <x:c r="A41" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:2">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
       <x:c r="A42" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
       <x:c r="A43" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1697,6 +1803,7 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:legacyDrawing r:id="rId10"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -1706,219 +1813,222 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C19"/>
+  <x:dimension ref="A1:D19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
+      <x:c r="C2" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
+      <x:c r="C3" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
+      <x:c r="C4" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
+      <x:c r="C5" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
       <x:c r="A6" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
+      <x:c r="C6" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
+      <x:c r="C7" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
+      <x:c r="C8" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
       <x:c r="A9" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
+      <x:c r="C9" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
       <x:c r="A10" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
+      <x:c r="C10" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
       <x:c r="A11" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>139</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
+      <x:c r="C11" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
       <x:c r="A12" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
+      <x:c r="C12" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
       <x:c r="A13" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>141</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
+      <x:c r="C13" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
       <x:c r="A14" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>142</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
+      <x:c r="C14" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
       <x:c r="A15" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
+      <x:c r="C15" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
       <x:c r="A16" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
+      <x:c r="C16" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
       <x:c r="A17" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
+      <x:c r="C17" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
       <x:c r="A18" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B18" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>146</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
+      <x:c r="C18" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
       <x:c r="A19" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>147</x:v>
+      <x:c r="C19" s="1" t="s">
+        <x:v>153</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1926,6 +2036,7 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
+  <x:legacyDrawing r:id="rId12"/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>